--- a/NCACY25_0.25_1.xlsx_fitting_results.xlsx
+++ b/NCACY25_0.25_1.xlsx_fitting_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>W</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,31 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02063465519669891</v>
+        <v>0.02184304682102757</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00500000015901185</v>
+        <v>0.00254201611066127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7936947381228583</v>
+        <v>0.5726864088943691</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7192664882336044</v>
+        <v>0.9694979411303141</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002939447571537973</v>
+        <v>0.001372060022033574</v>
       </c>
       <c r="G2" t="n">
-        <v>4.243657135725928</v>
+        <v>299.999999031775</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9528063351660548</v>
+        <v>1.455034459168659e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004902641480139972</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.295698875296544e-07</v>
+        <v>0.004202997373286711</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02079774899849655</v>
+        <v>0.0219356903005373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005000000000000001</v>
+        <v>0.002688849275102153</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9037013592599202</v>
+        <v>0.8716399127763105</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7285979552577843</v>
+        <v>0.9305030410082146</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000583985294506433</v>
+        <v>0.0009807965334473626</v>
       </c>
       <c r="G3" t="n">
-        <v>9.999999999999998</v>
+        <v>299.9999981197878</v>
       </c>
       <c r="H3" t="n">
-        <v>0.999999999999888</v>
+        <v>2.922150344188549e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005183143918634766</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.271985705302676e-07</v>
+        <v>0.004492188893164674</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01966732535418491</v>
+        <v>0.02207510778737808</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005000000258104511</v>
+        <v>0.00326724282089121</v>
       </c>
       <c r="D4" t="n">
-        <v>6.004649153502615</v>
+        <v>1.344159958713022</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4918348694422095</v>
+        <v>0.8664109382711803</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002639070270197855</v>
+        <v>0.00064583109287334</v>
       </c>
       <c r="G4" t="n">
-        <v>9.070844014929838</v>
+        <v>299.9999999999903</v>
       </c>
       <c r="H4" t="n">
-        <v>0.50634609074626</v>
+        <v>1.874585750563731e-17</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005505918235768375</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.450084106217202e-07</v>
+        <v>0.004671963123964748</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02102979384282633</v>
+        <v>0.02212785322871242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005000000000000006</v>
+        <v>0.003818234177630882</v>
       </c>
       <c r="D5" t="n">
-        <v>9.46380055505189</v>
+        <v>1.942437893476004</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5435495320675066</v>
+        <v>0.8150820267742114</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001632616365439838</v>
+        <v>0.0004632949618935155</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2699405848856083</v>
+        <v>299.9999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999999999541793</v>
+        <v>4.722009826723467e-16</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005358630204238618</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.24045157447921e-07</v>
+        <v>0.004771509004161839</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02114281567871991</v>
+        <v>0.02215433181735298</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005669024675123291</v>
+        <v>0.004537004400687045</v>
       </c>
       <c r="D6" t="n">
-        <v>9.074196359458341</v>
+        <v>2.69811315978596</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5665595530647808</v>
+        <v>0.7645530838372587</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001614787039135596</v>
+        <v>0.0003452807332217377</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2676483992402462</v>
+        <v>299.9999997397227</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999890384755193</v>
+        <v>6.250448418398918e-15</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005368529526572697</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.240044779765874e-07</v>
+        <v>0.004790438275961577</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02135593953908562</v>
+        <v>0.02195350434384402</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00619685301970704</v>
+        <v>0.005501061924687667</v>
       </c>
       <c r="D7" t="n">
-        <v>8.630610647266943</v>
+        <v>3.650696120953693</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6005350132276421</v>
+        <v>0.7147909863150368</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001693060985226519</v>
+        <v>0.0005310002095987833</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2708392379754689</v>
+        <v>299.9999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9999999999999999</v>
+        <v>3.933895941205068e-17</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005429721319456512</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.213188988000793e-07</v>
+        <v>0.004881833306033953</v>
       </c>
     </row>
     <row r="8">
@@ -696,31 +673,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02143685165782704</v>
+        <v>0.02130352743097509</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006961551064214479</v>
+        <v>0.006819804556559253</v>
       </c>
       <c r="D8" t="n">
-        <v>8.037031733664772</v>
+        <v>4.957132522467846</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6187206758362079</v>
+        <v>0.6603929119902219</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001686968257873836</v>
+        <v>0.001530627162010185</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2687491443073062</v>
+        <v>299.9999995814902</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999999999999</v>
+        <v>6.087355306200582e-12</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005493532522046478</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.21575568755751e-07</v>
+        <v>0.005036276364406119</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +704,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02143024771911979</v>
+        <v>0.02062683822142055</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008092730833465716</v>
+        <v>0.008392037140265743</v>
       </c>
       <c r="D9" t="n">
-        <v>7.505177006929597</v>
+        <v>5.8034342147933</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6227089342089492</v>
+        <v>0.6284859540865069</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001701523688484182</v>
+        <v>0.00359425620569062</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2383420076670021</v>
+        <v>299.9999999997679</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9999999999999996</v>
+        <v>1.62231493624145e-15</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0055052659015207</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.229515480860173e-07</v>
+        <v>0.005171452324104252</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02157168074893975</v>
+        <v>0.02062943649370337</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008841282198587194</v>
+        <v>0.001811545732765565</v>
       </c>
       <c r="D10" t="n">
-        <v>7.143383162870962</v>
+        <v>0.1032191771465468</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6418742291362954</v>
+        <v>4.629836775441031e-09</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001854242492497974</v>
+        <v>0.01029031930242539</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2234106107912432</v>
+        <v>6.088612124824738</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9999999999986217</v>
+        <v>0.6103553482094622</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005562860925296176</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.225328882912453e-07</v>
+        <v>0.002752016640055149</v>
       </c>
     </row>
     <row r="11">
@@ -798,31 +766,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02172843171447017</v>
+        <v>0.01940077617523344</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009860485971608724</v>
+        <v>0.01121742145003164</v>
       </c>
       <c r="D11" t="n">
-        <v>6.886322434757945</v>
+        <v>6.521735700817343</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6542641355980121</v>
+        <v>0.6037065245926337</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002032071396437133</v>
+        <v>0.08134619080952545</v>
       </c>
       <c r="G11" t="n">
-        <v>0.207816888542112</v>
+        <v>299.9971205297172</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9999999999286312</v>
+        <v>1.049983458121913e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005616946078881691</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.21961507751786e-07</v>
+        <v>0.005517084321090635</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +797,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02190420137839909</v>
+        <v>0.02271464236852618</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01067511737264708</v>
+        <v>0.01427032468635877</v>
       </c>
       <c r="D12" t="n">
-        <v>6.75076285642194</v>
+        <v>7.276510558035073</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6813876265525102</v>
+        <v>0.5729499001525388</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002603599749268903</v>
+        <v>4.926970792731416e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2934476494780702</v>
+        <v>299.9999999954331</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9398481338584778</v>
+        <v>0.9999999999857512</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005725845497196379</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.204969130749722e-07</v>
+        <v>0.002955526867997615</v>
       </c>
     </row>
     <row r="13">
@@ -866,31 +828,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02203112946713798</v>
+        <v>0.02352916215529943</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01135676767643363</v>
+        <v>0.002391503174846168</v>
       </c>
       <c r="D13" t="n">
-        <v>6.705186065943938</v>
+        <v>0.6596481623654374</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7145314404734789</v>
+        <v>0.9999999999997528</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003445387559700236</v>
+        <v>0.01113294390642781</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4707787031383968</v>
+        <v>5.853936037080457</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8615337982331583</v>
+        <v>0.7628974301632567</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005860435180638802</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.209678678497576e-07</v>
+        <v>0.002930983862368315</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +859,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02229102508169447</v>
+        <v>0.02370445984989912</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01216605762403046</v>
+        <v>0.002697469862191377</v>
       </c>
       <c r="D14" t="n">
-        <v>6.581009674625401</v>
+        <v>0.6159618690791637</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7398948819260837</v>
+        <v>0.9976000234456381</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003861507665571486</v>
+        <v>0.01218642802020431</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5376517608172999</v>
+        <v>5.680596600789337</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8477077159975653</v>
+        <v>0.7795409660834572</v>
       </c>
       <c r="I14" t="n">
-        <v>0.006049529121846816</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.186531813969574e-07</v>
+        <v>0.003013643419320638</v>
       </c>
     </row>
     <row r="15">
@@ -934,31 +890,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02254785437980982</v>
+        <v>0.02385785786821437</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0133892158796234</v>
+        <v>0.003153982484790955</v>
       </c>
       <c r="D15" t="n">
-        <v>6.508159781816683</v>
+        <v>0.7259024133515821</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7529346655589586</v>
+        <v>0.9585885647092127</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004082105766971051</v>
+        <v>0.01329463766717203</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5439494641125048</v>
+        <v>5.693763535479968</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8511471185839862</v>
+        <v>0.7939985327712864</v>
       </c>
       <c r="I15" t="n">
-        <v>0.006174415511447329</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.15675946001089e-07</v>
+        <v>0.003074654032023519</v>
       </c>
     </row>
     <row r="16">
@@ -968,31 +921,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02248677676204824</v>
+        <v>0.02399199371969859</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01403204584084294</v>
+        <v>0.01418755650240585</v>
       </c>
       <c r="D16" t="n">
-        <v>6.606694812655913</v>
+        <v>6.41408012957285</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7779957652113586</v>
+        <v>0.7843658353908062</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005029519143817203</v>
+        <v>0.003254855559041565</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8708471256740066</v>
+        <v>0.6738341652057458</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7732087777625976</v>
+        <v>0.961528801475851</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00625932875414301</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.186117213720644e-07</v>
+        <v>0.003139157506164574</v>
       </c>
     </row>
   </sheetData>
